--- a/data_year/zb/科技/国内三种专利申请受理数和授权数.xlsx
+++ b/data_year/zb/科技/国内三种专利申请受理数和授权数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,653 +478,393 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>128174</v>
+        <v>1083997</v>
       </c>
       <c r="C2" t="n">
-        <v>85473</v>
+        <v>719408</v>
       </c>
       <c r="D2" t="n">
-        <v>25346</v>
+        <v>293066</v>
       </c>
       <c r="E2" t="n">
-        <v>6177</v>
+        <v>79767</v>
       </c>
       <c r="F2" t="n">
-        <v>46532</v>
+        <v>409124</v>
       </c>
       <c r="G2" t="n">
-        <v>34652</v>
+        <v>318597</v>
       </c>
       <c r="H2" t="n">
-        <v>68461</v>
+        <v>407238</v>
       </c>
       <c r="I2" t="n">
-        <v>54407</v>
+        <v>342256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165773</v>
+        <v>1504670</v>
       </c>
       <c r="C3" t="n">
-        <v>99278</v>
+        <v>883861</v>
       </c>
       <c r="D3" t="n">
-        <v>30038</v>
+        <v>415829</v>
       </c>
       <c r="E3" t="n">
-        <v>5395</v>
+        <v>112347</v>
       </c>
       <c r="F3" t="n">
-        <v>56460</v>
+        <v>507538</v>
       </c>
       <c r="G3" t="n">
-        <v>39865</v>
+        <v>366428</v>
       </c>
       <c r="H3" t="n">
-        <v>79275</v>
+        <v>581303</v>
       </c>
       <c r="I3" t="n">
-        <v>54018</v>
+        <v>405086</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205544</v>
+        <v>1912151</v>
       </c>
       <c r="C4" t="n">
-        <v>112103</v>
+        <v>1163226</v>
       </c>
       <c r="D4" t="n">
-        <v>39806</v>
+        <v>535313</v>
       </c>
       <c r="E4" t="n">
-        <v>5868</v>
+        <v>143847</v>
       </c>
       <c r="F4" t="n">
-        <v>73572</v>
+        <v>642401</v>
       </c>
       <c r="G4" t="n">
-        <v>49143</v>
+        <v>452629</v>
       </c>
       <c r="H4" t="n">
-        <v>92166</v>
+        <v>734437</v>
       </c>
       <c r="I4" t="n">
-        <v>57092</v>
+        <v>566750</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>251238</v>
+        <v>2209600</v>
       </c>
       <c r="C5" t="n">
-        <v>149588</v>
+        <v>1210200</v>
       </c>
       <c r="D5" t="n">
-        <v>56769</v>
+        <v>704936</v>
       </c>
       <c r="E5" t="n">
-        <v>11404</v>
+        <v>143535</v>
       </c>
       <c r="F5" t="n">
-        <v>86627</v>
+        <v>644398</v>
       </c>
       <c r="G5" t="n">
-        <v>69893</v>
+        <v>398670</v>
       </c>
       <c r="H5" t="n">
-        <v>107842</v>
+        <v>885226</v>
       </c>
       <c r="I5" t="n">
-        <v>68291</v>
+        <v>686208</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>278943</v>
+        <v>2186500</v>
       </c>
       <c r="C6" t="n">
-        <v>151328</v>
+        <v>1191600</v>
       </c>
       <c r="D6" t="n">
-        <v>65786</v>
+        <v>801135</v>
       </c>
       <c r="E6" t="n">
-        <v>18241</v>
+        <v>162680</v>
       </c>
       <c r="F6" t="n">
-        <v>101579</v>
+        <v>548428</v>
       </c>
       <c r="G6" t="n">
-        <v>63068</v>
+        <v>346751</v>
       </c>
       <c r="H6" t="n">
-        <v>111578</v>
+        <v>861053</v>
       </c>
       <c r="I6" t="n">
-        <v>70019</v>
+        <v>699971</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>383157</v>
+        <v>2616700</v>
       </c>
       <c r="C7" t="n">
-        <v>171619</v>
+        <v>1578200</v>
       </c>
       <c r="D7" t="n">
-        <v>93485</v>
+        <v>968251</v>
       </c>
       <c r="E7" t="n">
-        <v>20705</v>
+        <v>263436</v>
       </c>
       <c r="F7" t="n">
-        <v>151587</v>
+        <v>551481</v>
       </c>
       <c r="G7" t="n">
-        <v>72777</v>
+        <v>464807</v>
       </c>
       <c r="H7" t="n">
-        <v>138085</v>
+        <v>1119714</v>
       </c>
       <c r="I7" t="n">
-        <v>78137</v>
+        <v>868734</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>470342</v>
+        <v>3281200</v>
       </c>
       <c r="C8" t="n">
-        <v>223860</v>
+        <v>1611900</v>
       </c>
       <c r="D8" t="n">
-        <v>122318</v>
+        <v>1204981</v>
       </c>
       <c r="E8" t="n">
-        <v>25077</v>
+        <v>302136</v>
       </c>
       <c r="F8" t="n">
-        <v>188027</v>
+        <v>631949</v>
       </c>
       <c r="G8" t="n">
-        <v>92471</v>
+        <v>429710</v>
       </c>
       <c r="H8" t="n">
-        <v>159997</v>
+        <v>1468295</v>
       </c>
       <c r="I8" t="n">
-        <v>106312</v>
+        <v>897035</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>586498</v>
+        <v>3513200</v>
       </c>
       <c r="C9" t="n">
-        <v>301632</v>
+        <v>1705100</v>
       </c>
       <c r="D9" t="n">
-        <v>153060</v>
+        <v>1245709</v>
       </c>
       <c r="E9" t="n">
-        <v>31945</v>
+        <v>326970</v>
       </c>
       <c r="F9" t="n">
-        <v>253439</v>
+        <v>610817</v>
       </c>
       <c r="G9" t="n">
-        <v>121296</v>
+        <v>426442</v>
       </c>
       <c r="H9" t="n">
-        <v>179999</v>
+        <v>1679807</v>
       </c>
       <c r="I9" t="n">
-        <v>148391</v>
+        <v>967416</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>717144</v>
+        <v>4121475</v>
       </c>
       <c r="C10" t="n">
-        <v>352406</v>
+        <v>2319209</v>
       </c>
       <c r="D10" t="n">
-        <v>194579</v>
+        <v>1393815</v>
       </c>
       <c r="E10" t="n">
-        <v>46590</v>
+        <v>345959</v>
       </c>
       <c r="F10" t="n">
-        <v>298620</v>
+        <v>689097</v>
       </c>
       <c r="G10" t="n">
-        <v>130647</v>
+        <v>517693</v>
       </c>
       <c r="H10" t="n">
-        <v>223945</v>
+        <v>2063860</v>
       </c>
       <c r="I10" t="n">
-        <v>175169</v>
+        <v>1471759</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>877611</v>
+        <v>4195104</v>
       </c>
       <c r="C11" t="n">
-        <v>501786</v>
+        <v>2474406</v>
       </c>
       <c r="D11" t="n">
-        <v>229096</v>
+        <v>1243568</v>
       </c>
       <c r="E11" t="n">
-        <v>65391</v>
+        <v>360919</v>
       </c>
       <c r="F11" t="n">
-        <v>339654</v>
+        <v>691771</v>
       </c>
       <c r="G11" t="n">
-        <v>234282</v>
+        <v>539282</v>
       </c>
       <c r="H11" t="n">
-        <v>308861</v>
+        <v>2259765</v>
       </c>
       <c r="I11" t="n">
-        <v>202113</v>
+        <v>1574205</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1083997</v>
+        <v>5016030</v>
       </c>
       <c r="C12" t="n">
-        <v>719408</v>
+        <v>3520901</v>
       </c>
       <c r="D12" t="n">
-        <v>293066</v>
+        <v>1344817</v>
       </c>
       <c r="E12" t="n">
-        <v>79767</v>
+        <v>440691</v>
       </c>
       <c r="F12" t="n">
-        <v>409124</v>
+        <v>752339</v>
       </c>
       <c r="G12" t="n">
-        <v>318597</v>
+        <v>711559</v>
       </c>
       <c r="H12" t="n">
-        <v>407238</v>
+        <v>2918874</v>
       </c>
       <c r="I12" t="n">
-        <v>342256</v>
+        <v>2368651</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1504670</v>
+        <v>5060312</v>
       </c>
       <c r="C13" t="n">
-        <v>883861</v>
+        <v>4467165</v>
       </c>
       <c r="D13" t="n">
-        <v>415829</v>
+        <v>1427845</v>
       </c>
       <c r="E13" t="n">
-        <v>112347</v>
+        <v>585910</v>
       </c>
       <c r="F13" t="n">
-        <v>507538</v>
+        <v>787149</v>
       </c>
       <c r="G13" t="n">
-        <v>366428</v>
+        <v>768460</v>
       </c>
       <c r="H13" t="n">
-        <v>581303</v>
+        <v>2845318</v>
       </c>
       <c r="I13" t="n">
-        <v>405086</v>
+        <v>3112795</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1912151</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1163226</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>535313</v>
+        <v>1465000</v>
       </c>
       <c r="E14" t="n">
-        <v>143847</v>
-      </c>
-      <c r="F14" t="n">
-        <v>642401</v>
-      </c>
-      <c r="G14" t="n">
-        <v>452629</v>
-      </c>
-      <c r="H14" t="n">
-        <v>734437</v>
-      </c>
-      <c r="I14" t="n">
-        <v>566750</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2209600</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1210200</v>
-      </c>
-      <c r="D15" t="n">
-        <v>704936</v>
-      </c>
-      <c r="E15" t="n">
-        <v>143535</v>
-      </c>
-      <c r="F15" t="n">
-        <v>644398</v>
-      </c>
-      <c r="G15" t="n">
-        <v>398670</v>
-      </c>
-      <c r="H15" t="n">
-        <v>885226</v>
-      </c>
-      <c r="I15" t="n">
-        <v>686208</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2186500</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1191600</v>
-      </c>
-      <c r="D16" t="n">
-        <v>801135</v>
-      </c>
-      <c r="E16" t="n">
-        <v>162680</v>
-      </c>
-      <c r="F16" t="n">
-        <v>548428</v>
-      </c>
-      <c r="G16" t="n">
-        <v>346751</v>
-      </c>
-      <c r="H16" t="n">
-        <v>861053</v>
-      </c>
-      <c r="I16" t="n">
-        <v>699971</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2616700</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1578200</v>
-      </c>
-      <c r="D17" t="n">
-        <v>968251</v>
-      </c>
-      <c r="E17" t="n">
-        <v>263436</v>
-      </c>
-      <c r="F17" t="n">
-        <v>551481</v>
-      </c>
-      <c r="G17" t="n">
-        <v>464807</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1119714</v>
-      </c>
-      <c r="I17" t="n">
-        <v>868734</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3281200</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1611900</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1204981</v>
-      </c>
-      <c r="E18" t="n">
-        <v>302136</v>
-      </c>
-      <c r="F18" t="n">
-        <v>631949</v>
-      </c>
-      <c r="G18" t="n">
-        <v>429710</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1468295</v>
-      </c>
-      <c r="I18" t="n">
-        <v>897035</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3513200</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1705100</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1245709</v>
-      </c>
-      <c r="E19" t="n">
-        <v>326970</v>
-      </c>
-      <c r="F19" t="n">
-        <v>610817</v>
-      </c>
-      <c r="G19" t="n">
-        <v>426442</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1679807</v>
-      </c>
-      <c r="I19" t="n">
-        <v>967416</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4121475</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2319209</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1393815</v>
-      </c>
-      <c r="E20" t="n">
-        <v>345959</v>
-      </c>
-      <c r="F20" t="n">
-        <v>689097</v>
-      </c>
-      <c r="G20" t="n">
-        <v>517693</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2063860</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1471759</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4195104</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2474406</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1243568</v>
-      </c>
-      <c r="E21" t="n">
-        <v>360919</v>
-      </c>
-      <c r="F21" t="n">
-        <v>691771</v>
-      </c>
-      <c r="G21" t="n">
-        <v>539282</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2259765</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1574205</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>5016030</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3520901</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1344817</v>
-      </c>
-      <c r="E22" t="n">
-        <v>440691</v>
-      </c>
-      <c r="F22" t="n">
-        <v>752339</v>
-      </c>
-      <c r="G22" t="n">
-        <v>711559</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2918874</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2368651</v>
-      </c>
+        <v>696000</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
